--- a/LifeChem raw data/UCL0010_6_12_24_EC50_Jessica Smith.xlsx
+++ b/LifeChem raw data/UCL0010_6_12_24_EC50_Jessica Smith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uccaris_ucl_ac_uk/Documents/DENV project/Datasets/LifeChemicals Oct2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uccaris_ucl_ac_uk/Documents/GitHub/CNP11-DENVRdrp-LifeChem/LifeChem raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{91E0140E-E50F-044F-A4E4-D7697570851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028491AD-6088-47AC-A144-4EBE81AC754E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{91E0140E-E50F-044F-A4E4-D7697570851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5E8DA0-01A0-4B6B-AEEC-36243EA70FAB}"/>
   <bookViews>
-    <workbookView xWindow="-1140" yWindow="315" windowWidth="13755" windowHeight="13620" xr2:uid="{FE64FE1A-F539-504E-B2C7-84962A7DFFF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE64FE1A-F539-504E-B2C7-84962A7DFFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,8 +176,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +200,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,11 +232,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,9 +252,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -567,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E339E63D-67D3-3543-971A-7CA3ECFF4D84}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +612,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="D2" s="4">
@@ -665,7 +682,7 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>5.3</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -693,7 +710,7 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="D9" s="4" t="s">
